--- a/Analyzed/try2/data_2008.xlsx
+++ b/Analyzed/try2/data_2008.xlsx
@@ -541,13 +541,13 @@
         <v>1543.613</v>
       </c>
       <c r="L2">
-        <v>62.8</v>
+        <v>2198</v>
       </c>
       <c r="M2">
         <v>67.63103535144093</v>
       </c>
       <c r="N2">
-        <v>53.59</v>
+        <v>1554.11</v>
       </c>
       <c r="O2">
         <v>1038.15</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>1207.102</v>
       </c>
       <c r="L3">
-        <v>64.90000000000001</v>
+        <v>2271.5</v>
       </c>
       <c r="M3">
         <v>51.90075151446046</v>
       </c>
       <c r="N3">
-        <v>51.05</v>
+        <v>1480.45</v>
       </c>
       <c r="O3">
         <v>1016.59</v>
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -723,13 +723,13 @@
         <v>1351.91</v>
       </c>
       <c r="L4">
-        <v>64.10000000000001</v>
+        <v>2243.5</v>
       </c>
       <c r="M4">
         <v>63.85340517437292</v>
       </c>
       <c r="N4">
-        <v>61.68000000000001</v>
+        <v>1788.72</v>
       </c>
       <c r="O4">
         <v>945.97</v>
@@ -762,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1406.046</v>
       </c>
       <c r="L5">
-        <v>55.8</v>
+        <v>1953</v>
       </c>
       <c r="M5">
         <v>65.46345770451086</v>
       </c>
       <c r="N5">
-        <v>55.7</v>
+        <v>1615.3</v>
       </c>
       <c r="O5">
         <v>1145.23</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>971.672</v>
       </c>
       <c r="L6">
-        <v>60.1</v>
+        <v>2103.5</v>
       </c>
       <c r="M6">
         <v>58.72240075870474</v>
       </c>
       <c r="N6">
-        <v>62.93</v>
+        <v>1824.97</v>
       </c>
       <c r="O6">
         <v>956.88</v>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -956,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1128.122</v>
       </c>
       <c r="L7">
-        <v>50.1</v>
+        <v>1753.5</v>
       </c>
       <c r="M7">
         <v>77.79057291897483</v>
       </c>
       <c r="N7">
-        <v>62.92000000000001</v>
+        <v>1824.68</v>
       </c>
       <c r="O7">
         <v>1080.6</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1087,13 +1087,13 @@
         <v>1092.565</v>
       </c>
       <c r="L8">
-        <v>50.40000000000001</v>
+        <v>1764</v>
       </c>
       <c r="M8">
         <v>66.81591542058901</v>
       </c>
       <c r="N8">
-        <v>19.35</v>
+        <v>561.1499999999999</v>
       </c>
       <c r="O8">
         <v>1069.94</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1178,13 +1178,13 @@
         <v>2367.181</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>1715</v>
       </c>
       <c r="M9">
         <v>64.07970215686933</v>
       </c>
       <c r="N9">
-        <v>13.28</v>
+        <v>385.12</v>
       </c>
       <c r="O9">
         <v>1032.63</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
